--- a/biology/Biochimie/Métabolisme_acido-basique/Métabolisme_acido-basique.xlsx
+++ b/biology/Biochimie/Métabolisme_acido-basique/Métabolisme_acido-basique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tabolisme_acido-basique</t>
+          <t>Métabolisme_acido-basique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le métabolisme acido-basique est la partie du métabolisme régulant l'acidité du sang, le pH sanguin devant demeurer entre des limites physiologiques très étroites, 7,38 et 7,42. On parle d'acidose au-dessous de 7,38 et d'alcalose au-dessus de 7,42, toutes deux pouvant être d'origine métabolique ou bien respiratoire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9tabolisme_acido-basique</t>
+          <t>Métabolisme_acido-basique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Sources d'acides et de bases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sources acides ou basiques sont nombreuses, particulièrement pour les acides qui sont tirés des aliments et le métabolisme interne (respiration cellulaire : le dioxyde de carbone est un acide qui se combine avec l'eau). Les bases proviennent de ces mêmes sources mais en nombre plus restreint.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9tabolisme_acido-basique</t>
+          <t>Métabolisme_acido-basique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Mécanismes de contrôle de l'équilibre acide-base</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour maintenir le pH au plus près de 7,40 interviennent de puissants systèmes tampons. Les protéines amphotères, les phosphates, l'hémoglobine des globules rouges et les bicarbonates participent à la régulation fine du pH. Ainsi, la concentration plasmatique des bicarbonates est 600 000 fois celle des H+, ce qui permet de tamponner les ions H+ de source non respiratoire à travers la réaction :
 H+ + HCO3− → H2CO3 → CO2 + H2O.
